--- a/medicine/Enfance/Mouvement_international_d'apostolat_des_enfants/Mouvement_international_d'apostolat_des_enfants.xlsx
+++ b/medicine/Enfance/Mouvement_international_d'apostolat_des_enfants/Mouvement_international_d'apostolat_des_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouvement_international_d%27apostolat_des_enfants</t>
+          <t>Mouvement_international_d'apostolat_des_enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mouvement international d'apostolat des enfants (MIDADE) est un mouvement laïc. Il rassemble les mouvements nationaux de 41 pays à travers le monde : en Afrique, Amérique Latine, Canada, Moyen-Orient, Océan Indien, Europe,France.
-Le MIDADE, Organisation Internationale Non Gouvernementale, est reconnu par l'ECOSOC (UNICEF, Commission des droits de l'enfant, Commission des droits de l'Homme) et par l'Organisation Internationale du Travail[1].
+Le MIDADE, Organisation Internationale Non Gouvernementale, est reconnu par l'ECOSOC (UNICEF, Commission des droits de l'enfant, Commission des droits de l'Homme) et par l'Organisation Internationale du Travail.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mouvement_international_d%27apostolat_des_enfants</t>
+          <t>Mouvement_international_d'apostolat_des_enfants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nom du mouvement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>MIDADE : Mouvement International d'Apostolat des Enfants
 IMAC : International Movement of Apostolate of Children
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mouvement_international_d%27apostolat_des_enfants</t>
+          <t>Mouvement_international_d'apostolat_des_enfants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le MIDADE a trois principales missions :
 Promouvoir et soutenir à travers le monde, l’expression, la formation et l’épanouissement des enfants. Il favorise et soutient les actions de responsabilisation des enfants, sans distinction d'origine sociale, culturelle, ethnique, religieuse... ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mouvement_international_d%27apostolat_des_enfants</t>
+          <t>Mouvement_international_d'apostolat_des_enfants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1956 : Création de la Commission Internationale du Mouvement pour faire connaître les expériences dans chaque pays et aider à organiser des structures nationales;
 1962 : Première rencontre internationale à Paris des associations Cœurs Vaillants du monde (23 pays représentés);
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mouvement_international_d%27apostolat_des_enfants</t>
+          <t>Mouvement_international_d'apostolat_des_enfants</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Mouvements membres du MIDADE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le MIDADE rassemble près de 2 millions d'enfants à travers le monde dans 53 pays : Afrique (18), Amérique du Nord (4), Amérique du Sud (8), Asie (6), Europe (8), Moyen-Orient (4), Océanie (5)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le MIDADE rassemble près de 2 millions d'enfants à travers le monde dans 53 pays : Afrique (18), Amérique du Nord (4), Amérique du Sud (8), Asie (6), Europe (8), Moyen-Orient (4), Océanie (5).
 </t>
         </is>
       </c>
